--- a/python-excel-get-started.xlsx
+++ b/python-excel-get-started.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F960B-5B11-44EB-B337-A1DF4DBA1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A72388-C141-45D1-918D-F6CC93E756C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{0A23B569-3192-4365-86D5-309163F6E165}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{0A23B569-3192-4365-86D5-309163F6E165}"/>
   </bookViews>
   <sheets>
     <sheet name="hello-world" sheetId="1" r:id="rId1"/>
@@ -34,51 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
-<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
-<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
-  <pythonScript>
-    <code>my_object = 'Hello, world!'</code>
-  </pythonScript>
-</pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -163,64 +118,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>9</v>
-    <v>22</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,9 +449,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2BEEE3-2664-4340-B838-B6644BB640D0}">
-  <dimension ref="B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -564,14 +461,7 @@
     <col min="2" max="2" width="16.0703125" customWidth="1"/>
     <col min="3" max="3" width="10.40625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.85">
-      <c r="B2" t="e" cm="1" vm="1">
-        <f t="array" ref="B2">_xlfn._xlws.PY(0,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -580,9 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF42A2-A8A6-4270-BB25-12D802CDC791}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
